--- a/attachment/批发市场.xlsx
+++ b/attachment/批发市场.xlsx
@@ -21,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
-  <si>
-    <t>平台端页面</t>
-  </si>
-  <si>
-    <t>商铺端页面</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t>顾客端页面</t>
   </si>
@@ -116,10 +110,6 @@
     <t>account</t>
   </si>
   <si>
-    <t>框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类目管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,10 +167,6 @@
   </si>
   <si>
     <t>忘记密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用手机号注册,需要验证手机号的正确性, 需要接收短信验证码,需要填写用户昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,33 +188,200 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分两级</t>
+    <t>购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的概况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品价格管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题,内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可设置多个banner图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片+跳转地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字+跳转地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同市场端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对商铺进行收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用手机号注册,需要验证手机号的正确性, 需要接收短信验证码,需要填写用户信息(姓氏, 性别(先生/女士))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类目商品特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类目商品属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类目商品模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台配置管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>顶部有搜索入口
-从搜索或目录都是进入商品列表页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情</t>
+从搜索或目录都是进入商品列表页
+列表页中不显示商品价格
+购买过的商品排在最前面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>可删除商品,修改商品数量</t>
+      <t>填写客户信息,添加商品,修改商品数量,修改商品单价,修改商品总价,修改订单总价
+若有填写客户信息</t>
     </r>
     <r>
       <rPr>
@@ -243,32 +392,64 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,查看商品详情</t>
+      <t>,有填写客户手机号,则自动关联客户</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可立即购买,或联系商家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的概况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单页面</t>
+    <t>默认不显示价格,无法立即购买,可收藏,需要联系商家询价,商家出价后才可购买
+联系商家后自动成为商家的客户(window.location.href = "tel:10086";),询价的商品自动加入客户感兴趣商品
+商户出过价的商品可以直接购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需有手机版,手机号必填,自动关联客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>须有手机版,查看客户感兴趣的/收藏的商品,可以对商品进行报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商铺列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果是商品及商铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商铺信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入商铺后底部菜单变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分两级,大类和小类.
+市场和商铺共用页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车中商品按不同商户进行分组
+可删除商品,修改商品数量,查看商品详情
+购物车中勾选商品后可保存为订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择收货地址(收货人电话,收货地址)
+选择发票信息
+可填写备注
+订单底部有联系商家以及支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单底部有联系商家以及支付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,8 +486,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,8 +509,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -343,32 +545,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -675,296 +977,443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A32" s="7"/>
+      <c r="B32" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="7"/>
+      <c r="B33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="7"/>
+      <c r="B34" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="C35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6" t="s">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="7"/>
+      <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A41" s="7"/>
+      <c r="B41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="13">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A26:A41"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -987,114 +1436,114 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
